--- a/Excel/3장연습.xlsx
+++ b/Excel/3장연습.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20336"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E463424-6DFD-4E1E-9550-FE54FDE317D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9A0550-DA41-4232-887F-EC36BB2AD1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,8 +66,34 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{6936C6AB-AA84-4634-85A6-93244B58964A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">원화 기준
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,15 +228,91 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">전화 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>☎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">금액 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>₩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庾信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李舜臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>981234-3</t>
+  </si>
+  <si>
+    <t>991234-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교로
+1234번 길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +368,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -363,6 +481,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="제목 4" xfId="1" builtinId="19"/>
@@ -644,29 +782,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -677,7 +817,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
@@ -714,9 +854,10 @@
       <c r="L3" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -749,12 +890,13 @@
       <c r="K4" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -787,12 +929,13 @@
       <c r="K5" s="16">
         <v>0.5708333333333333</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -821,16 +964,18 @@
       <c r="K6" s="16">
         <v>0.59722222222222221</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J8" s="3"/>
+      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -841,4 +986,186 @@
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAABDAA-F76F-40D6-B790-E30D3D0831BF}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1012345678</v>
+      </c>
+      <c r="H4">
+        <v>123456789012</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>45736</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="23">
+        <v>123456789012</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>45767</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>-500</v>
+      </c>
+      <c r="J6" s="26">
+        <v>45797</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="27">
+        <v>45757</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>